--- a/WebApi5Paisa/NetTaskScheduler/Excel/Symbol_WeeklyMonthly.xlsx
+++ b/WebApi5Paisa/NetTaskScheduler/Excel/Symbol_WeeklyMonthly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarvesh\R&amp;D Project\ConsoleApp1\ConsoleApp2\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarvesh\LiveProject\InnovatiaCS\WebApi5Paisa\NetTaskScheduler\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163CDEB-916E-420E-87BE-8B147615B3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3463F3-744A-4B68-951C-89787AB5F6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB0BE726-A608-4385-947B-AC4E51A46F0C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Symbols</t>
   </si>
@@ -51,16 +51,34 @@
     <t>monthlyexpdate</t>
   </si>
   <si>
-    <t>NIFTY51</t>
-  </si>
-  <si>
-    <t>NIFTY52</t>
-  </si>
-  <si>
-    <t>NIFTY53</t>
-  </si>
-  <si>
-    <t>NIFTY54</t>
+    <t>scripCode</t>
+  </si>
+  <si>
+    <t>46930</t>
+  </si>
+  <si>
+    <t>46931</t>
+  </si>
+  <si>
+    <t>46932</t>
+  </si>
+  <si>
+    <t>46933</t>
+  </si>
+  <si>
+    <t>46923</t>
+  </si>
+  <si>
+    <t>46924</t>
+  </si>
+  <si>
+    <t>46925</t>
+  </si>
+  <si>
+    <t>46926</t>
+  </si>
+  <si>
+    <t>46927</t>
   </si>
 </sst>
 </file>
@@ -109,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59AD267-DAFF-4236-B6A6-8349EC9FE15C}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,9 +457,10 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +470,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -461,8 +484,11 @@
       <c r="C2" s="2">
         <v>45441</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -472,8 +498,11 @@
       <c r="C3" s="2">
         <v>45469</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -483,8 +512,11 @@
       <c r="C4" s="2">
         <v>45497</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -494,8 +526,11 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -505,10 +540,13 @@
       <c r="C6" s="2">
         <v>45473</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>45452</v>
@@ -516,10 +554,13 @@
       <c r="C7" s="2">
         <v>45503</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>45459</v>
@@ -527,10 +568,13 @@
       <c r="C8" s="2">
         <v>45534</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>45466</v>
@@ -538,16 +582,22 @@
       <c r="C9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <v>45473</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/WebApi5Paisa/NetTaskScheduler/Excel/Symbol_WeeklyMonthly.xlsx
+++ b/WebApi5Paisa/NetTaskScheduler/Excel/Symbol_WeeklyMonthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarvesh\LiveProject\InnovatiaCS\WebApi5Paisa\NetTaskScheduler\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3463F3-744A-4B68-951C-89787AB5F6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EDEDB9-2566-47B5-9610-D57AF535C69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB0BE726-A608-4385-947B-AC4E51A46F0C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Symbols</t>
   </si>
@@ -54,18 +54,6 @@
     <t>scripCode</t>
   </si>
   <si>
-    <t>46930</t>
-  </si>
-  <si>
-    <t>46931</t>
-  </si>
-  <si>
-    <t>46932</t>
-  </si>
-  <si>
-    <t>46933</t>
-  </si>
-  <si>
     <t>46923</t>
   </si>
   <si>
@@ -79,6 +67,9 @@
   </si>
   <si>
     <t>46927</t>
+  </si>
+  <si>
+    <t>15083</t>
   </si>
 </sst>
 </file>
@@ -449,7 +440,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +476,7 @@
         <v>45441</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -499,7 +490,7 @@
         <v>45469</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -513,7 +504,7 @@
         <v>45497</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -527,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -541,7 +532,7 @@
         <v>45473</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,7 +546,7 @@
         <v>45503</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -569,7 +560,7 @@
         <v>45534</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -597,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
